--- a/data/trans_dic/P19_2_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P19_2_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,15 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se siente bien consigo mismo (en desacuerdo, muy en desacuerdo)</t>
+          <t>Población que se siente bien consigo mismo (en desacuerdo, muy en desacuerdo) (tasa de respuesta: 99,64%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +550,25 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +595,57 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +664,9 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +681,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>10,45%</t>
+          <t>93,1%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,26%</t>
+          <t>96,6%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,61%</t>
+          <t>90,9%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5,31%</t>
+          <t>92,06%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>19,79%</t>
+          <t>85,01%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>11,77%</t>
+          <t>76,07%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>9,92%</t>
+          <t>86,51%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>9,85%</t>
+          <t>88,1%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>15,54%</t>
+          <t>90,98%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>7,68%</t>
+          <t>93,23%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>7,23%</t>
+          <t>83,37%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>7,36%</t>
+          <t>90,99%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>89,41%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>91,53%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>89,12%</t>
         </is>
       </c>
     </row>
@@ -724,62 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,65; 20,83</t>
+          <t>79,33; 100,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,78</t>
+          <t>86,34; 100,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,23; 13,76</t>
+          <t>75,87; 97,63</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,16; 13,07</t>
+          <t>77,83; 98,23</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>11,86; 30,14</t>
+          <t>65,77; 95,83</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,67; 21,39</t>
+          <t>62,02; 86,74</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,63; 18,83</t>
+          <t>75,33; 95,48</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,56; 17,77</t>
+          <t>74,72; 95,4</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>9,94; 22,33</t>
+          <t>79,75; 97,49</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>3,9; 13,58</t>
+          <t>83,91; 98,42</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>3,8; 12,19</t>
+          <t>75,42; 90,8</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>4,08; 12,5</t>
+          <t>82,73; 96,04</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>81,3; 95,15</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>83,38; 96,61</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>79,58; 95,23</t>
         </is>
       </c>
     </row>
@@ -796,62 +851,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>9,0%</t>
+          <t>88,05%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,25%</t>
+          <t>96,27%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,8%</t>
+          <t>95,66%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,93%</t>
+          <t>94,84%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>12,98%</t>
+          <t>95,42%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>4,78%</t>
+          <t>88,65%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>3,79%</t>
+          <t>94,42%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>6,44%</t>
+          <t>96,24%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>11,04%</t>
+          <t>93,39%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>3,57%</t>
+          <t>89,46%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>3,29%</t>
+          <t>88,35%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>4,61%</t>
+          <t>95,36%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>95,93%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>94,19%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>92,94%</t>
         </is>
       </c>
     </row>
@@ -864,62 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,3; 18,07</t>
+          <t>74,93; 95,84</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,62</t>
+          <t>86,61; 100,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,74</t>
+          <t>83,75; 100,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,82; 8,51</t>
+          <t>84,91; 98,61</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>6,9; 22,43</t>
+          <t>85,73; 99,11</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,07; 12,31</t>
+          <t>76,58; 95,1</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,86; 9,72</t>
+          <t>85,25; 98,28</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,68; 14,14</t>
+          <t>88,26; 100,0</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>6,76; 16,63</t>
+          <t>83,92; 98,37</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,48; 8,06</t>
+          <t>78,76; 96,29</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,15; 7,65</t>
+          <t>80,69; 93,55</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,02; 8,32</t>
+          <t>89,1; 98,3</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>90,37; 98,86</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>87,55; 97,69</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>86,94; 96,9</t>
         </is>
       </c>
     </row>
@@ -936,62 +1021,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,58%</t>
+          <t>94,76%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,63%</t>
+          <t>93,34%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,54%</t>
+          <t>96,59%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,2%</t>
+          <t>93,96%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>7,24%</t>
+          <t>89,16%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>4,68%</t>
+          <t>93,23%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>6,8%</t>
+          <t>94,97%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>10,32%</t>
+          <t>91,69%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>5,55%</t>
+          <t>89,06%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>4,18%</t>
+          <t>97,85%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>4,8%</t>
+          <t>93,83%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>6,84%</t>
+          <t>94,35%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>93,61%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>91,05%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>94,12%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1104,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,97; 8,27</t>
+          <t>87,69; 98,4</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,33; 8,06</t>
+          <t>83,68; 98,31</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,64; 7,08</t>
+          <t>90,52; 100,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,83; 9,48</t>
+          <t>84,82; 98,31</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,86; 12,47</t>
+          <t>79,43; 96,26</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,0; 9,32</t>
+          <t>86,24; 97,28</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,46; 12,01</t>
+          <t>88,75; 98,05</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,16; 17,12</t>
+          <t>84,55; 96,44</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,36; 9,2</t>
+          <t>81,47; 94,05</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,22; 7,24</t>
+          <t>92,58; 100,0</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,57; 7,88</t>
+          <t>89,14; 96,61</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,95; 10,54</t>
+          <t>89,31; 96,93</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>88,41; 96,88</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>85,71; 95,26</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>88,82; 97,36</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1191,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,36%</t>
+          <t>98,76%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,71%</t>
+          <t>96,36%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,23%</t>
+          <t>94,63%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,6%</t>
+          <t>96,16%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>11,51%</t>
+          <t>93,24%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>8,94%</t>
+          <t>86,34%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>7,23%</t>
+          <t>88,0%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>9,64%</t>
+          <t>90,58%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>7,84%</t>
+          <t>87,11%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>6,61%</t>
+          <t>85,02%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>5,87%</t>
+          <t>92,06%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>7,3%</t>
+          <t>91,85%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>92,47%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>91,41%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>89,02%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1274,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,78; 7,87</t>
+          <t>93,15; 100,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,37; 8,15</t>
+          <t>90,33; 98,8</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,58; 8,48</t>
+          <t>86,84; 98,61</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,55; 9,47</t>
+          <t>89,71; 98,74</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>6,9; 16,59</t>
+          <t>86,14; 97,41</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,49; 13,4</t>
+          <t>78,55; 92,36</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,2; 12,06</t>
+          <t>80,59; 93,73</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,05; 14,87</t>
+          <t>83,45; 94,75</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,35; 11,14</t>
+          <t>79,57; 93,04</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>4,33; 9,79</t>
+          <t>77,19; 90,87</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>3,65; 8,94</t>
+          <t>87,42; 95,26</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>4,59; 10,62</t>
+          <t>87,08; 95,23</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>87,26; 95,64</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>87,17; 95,13</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>83,48; 92,84</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1361,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>5,88%</t>
+          <t>94,36%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2,29%</t>
+          <t>96,01%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>4,11%</t>
+          <t>94,68%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>6,95%</t>
+          <t>90,77%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>9,16%</t>
+          <t>96,97%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>8,14%</t>
+          <t>89,62%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>5,61%</t>
+          <t>90,73%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>3,02%</t>
+          <t>92,14%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>7,47%</t>
+          <t>97,73%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>5,1%</t>
+          <t>87,95%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>4,82%</t>
+          <t>92,36%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>5,04%</t>
+          <t>93,75%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>93,64%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>93,76%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>92,7%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1444,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,5; 11,52</t>
+          <t>86,56; 98,6</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,71; 6,69</t>
+          <t>88,77; 98,77</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,51; 8,76</t>
+          <t>86,98; 98,69</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,23; 13,59</t>
+          <t>81,58; 96,81</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,85; 16,01</t>
+          <t>90,58; 100,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,24; 13,98</t>
+          <t>78,67; 95,99</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,56; 11,89</t>
+          <t>80,16; 96,36</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,98; 8,09</t>
+          <t>81,89; 98,01</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,43; 11,62</t>
+          <t>88,8; 100,0</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>2,81; 8,7</t>
+          <t>75,99; 94,82</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>2,57; 8,14</t>
+          <t>86,35; 96,01</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>2,58; 8,7</t>
+          <t>88,56; 97,01</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>88,84; 96,82</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>87,17; 97,24</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>85,89; 96,46</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1531,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>3,35%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1,29%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>4,27%</t>
+          <t>97,78%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>6,21%</t>
+          <t>97,42%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>8,62%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>8,71%</t>
+          <t>98,06%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>4,64%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>5,88%</t>
+          <t>95,1%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>6,25%</t>
+          <t>96,59%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>5,39%</t>
+          <t>91,1%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>4,49%</t>
+          <t>98,95%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>6,01%</t>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>96,32%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>96,96%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>94,75%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1614,77 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,12; 11,9</t>
+          <t>88,98; 100,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,4; 15,06</t>
+          <t>87,25; 100,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,98; 27,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,8; 19,78</t>
+          <t>88,1; 100,0</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>1,57; 10,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1,92; 12,12</t>
+          <t>85,09; 100,0</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>2,39; 17,86</t>
+          <t>89,16; 100,0</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>1,94; 12,59</t>
+          <t>76,69; 98,09</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>1,97; 8,28</t>
+          <t>94,56; 100,0</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>3,13; 10,67</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>89,08; 99,01</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>91,84; 99,15</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>85,0; 98,77</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1701,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>5,64%</t>
+          <t>94,77%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2,85%</t>
+          <t>96,21%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,7%</t>
+          <t>95,02%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>4,7%</t>
+          <t>94,17%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>11,19%</t>
+          <t>93,3%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>7,59%</t>
+          <t>88,89%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>6,42%</t>
+          <t>92,51%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>7,84%</t>
+          <t>92,1%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>8,59%</t>
+          <t>91,57%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>5,35%</t>
+          <t>91,04%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>5,12%</t>
+          <t>91,63%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>6,3%</t>
+          <t>94,22%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>93,49%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>92,84%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>92,14%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1784,84 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,76; 7,73</t>
+          <t>91,67; 96,89</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,65; 4,23</t>
+          <t>93,56; 98,01</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,36; 5,85</t>
+          <t>91,96; 97,06</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,15; 6,83</t>
+          <t>90,75; 96,16</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>8,74; 14,1</t>
+          <t>89,27; 95,98</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>5,68; 10,12</t>
+          <t>85,92; 92,01</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>4,65; 8,59</t>
+          <t>89,57; 94,87</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>5,91; 10,05</t>
+          <t>89,11; 94,57</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>7,09; 10,43</t>
+          <t>88,69; 93,91</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>4,06; 6,89</t>
+          <t>87,63; 93,81</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>3,92; 6,37</t>
+          <t>89,59; 93,68</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>5,02; 7,75</t>
+          <t>92,5; 95,74</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>91,32; 95,15</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>90,67; 94,44</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>89,8; 94,27</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1628,15 +1870,1980 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="M1:Q1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se siente bien consigo mismo (en desacuerdo, muy en desacuerdo) (tasa de respuesta: 99,64%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>80175</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>103390</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>96099</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>117426</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>123951</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>87496</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>115931</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>105794</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>111478</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>135643</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>167672</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>219321</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>201893</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>228903</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>259594</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>68314; 86113</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>92404; 107024</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>80203; 103214</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>99279; 125299</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>95893; 139713</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>71334; 99768</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>100940; 127947</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>89728; 114563</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>97712; 119444</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>122090; 143191</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>151681; 182615</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>199393; 231489</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>183571; 214857</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>208506; 241613</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>231818; 277403</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>120471</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>162454</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>137170</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>146320</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>217257</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>118181</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>155897</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>121936</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>117963</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>145259</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>238652</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>318350</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>259106</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>264283</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>362516</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>102522; 131139</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>146151; 168742</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>120092; 143392</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>130999; 152130</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>195200; 225670</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>102081; 126776</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>140760; 162269</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>111833; 126704</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>106000; 124257</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>127885; 156355</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>217964; 252705</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>297450; 328160</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>244083; 267020</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>245663; 274104</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>339122; 377974</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>101.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>151.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>152.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>151.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>147.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>153.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>132411</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>151262</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>129781</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>129322</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>160708</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>200809</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>250788</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>191969</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>178526</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>234561</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>333219</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>402050</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>321750</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>307848</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>395270</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>122531; 137484</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>135603; 159309</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>121629; 134363</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>116751; 135313</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>143179; 173506</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>185770; 209547</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>234367; 258915</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>177011; 201914</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>163314; 188536</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>221920; 239705</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>316571; 343091</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>380568; 413046</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>303897; 332993</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>289781; 322092</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>373028; 408866</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>165.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>165.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>165.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>164.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>160.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>161457</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>179900</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>152554</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>150214</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>187805</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>165152</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>192160</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>166579</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>150228</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>180879</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>326609</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>372059</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>319133</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>300443</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>368684</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>152283; 163480</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>168636; 184448</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>140003; 158977</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>140140; 154235</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>173494; 196191</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>150247; 176664</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>175981; 204680</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>153472; 174242</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>137234; 160450</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>164219; 193313</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>310122; 337957</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>352729; 385748</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>301150; 330058</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>286493; 312671</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>345718; 384504</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>107.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>108.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>108.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>108.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>108.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>131058</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>149041</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>125041</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>109986</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>148132</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>90919</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>105427</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>84452</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>88796</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>120534</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>221977</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>254467</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>209494</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>198781</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>268666</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>120228; 136947</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>137802; 153320</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>114875; 130346</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>98844; 117299</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>138373; 152766</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>79808; 97387</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>93152; 111976</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>75057; 89835</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>80678; 90856</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>104148; 129959</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>207532; 230757</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>240375; 263324</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>198764; 216617</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>184816; 206171</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>248920; 279553</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>83.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>90237</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>109317</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>85397</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>87807</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>137831</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>104950</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>137602</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>99984</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>106835</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>180882</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>195187</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>246918</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>185381</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>194642</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>318713</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>77710; 87335</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>78639; 90133</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>94289; 107022</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>89461; 105138</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>98618; 110607</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>152254; 194746</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>186525; 197259</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>171446; 190565</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>184364; 199041</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>285927; 332228</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>295.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>297.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>295.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>291.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>290.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>353.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>368.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>366.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>363.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>360.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>648.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>665.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>661.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>654.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>650.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>715809</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>855362</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>726041</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>741076</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>975685</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>767506</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>957803</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>770714</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>753825</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>997758</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>1483315</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>1813165</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>1496755</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>1494901</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>1973443</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>692388; 731809</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>831839; 871328</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>702703; 741666</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>714164; 756759</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>933504; 1003745</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>741869; 794488</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>927325; 982239</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>745755; 791412</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>730100; 773127</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>960373; 1028072</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>1450246; 1516430</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>1780031; 1842444</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>1461979; 1523317</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>1460055; 1520697</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>1923296; 2018899</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>